--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness\media\attachment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88843A5C-3BA2-4888-A9EE-D7EF238774AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="案件集計" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AF$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -392,29 +405,96 @@
       <t>エキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原価</t>
+  </si>
+  <si>
+    <t>粗利</t>
+  </si>
+  <si>
+    <t>経費</t>
+  </si>
+  <si>
+    <t>営業利益</t>
+  </si>
+  <si>
+    <t>税込</t>
+  </si>
+  <si>
+    <t>税別</t>
+  </si>
+  <si>
+    <t>月給</t>
+  </si>
+  <si>
+    <t>手当</t>
+  </si>
+  <si>
+    <t>深夜手当</t>
+  </si>
+  <si>
+    <t>残業／控除</t>
+  </si>
+  <si>
+    <t>交通費</t>
+  </si>
+  <si>
+    <t>雇用／労災</t>
+  </si>
+  <si>
+    <t>健康／厚生</t>
+  </si>
+  <si>
+    <t>原価合計</t>
+  </si>
+  <si>
+    <t>会議費</t>
+  </si>
+  <si>
+    <t>交際費</t>
+  </si>
+  <si>
+    <t>旅費交通費</t>
+  </si>
+  <si>
+    <t>通信費</t>
+  </si>
+  <si>
+    <t>租税公課</t>
+  </si>
+  <si>
+    <t>消耗品費</t>
+  </si>
+  <si>
+    <t>経費合計</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -630,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +839,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,18 +909,18 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Cambria-Calibri">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria" panose="02040503050406030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="黑体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -858,35 +944,18 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -907,26 +976,9 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1071,55 +1123,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="8.625" style="2"/>
-    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.625" style="8"/>
-    <col min="17" max="17" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="8"/>
-    <col min="19" max="19" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="9.625" style="8" customWidth="1"/>
-    <col min="23" max="25" width="8.625" style="8"/>
-    <col min="26" max="26" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.625" style="8"/>
-    <col min="29" max="29" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.375" style="8" customWidth="1"/>
-    <col min="32" max="32" width="9.625" style="8" customWidth="1"/>
-    <col min="33" max="40" width="10.375" style="2" customWidth="1"/>
-    <col min="41" max="16384" width="8.625" style="2"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="8.6640625" style="2"/>
+    <col min="7" max="7" width="12" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="10.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" style="11" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="8"/>
+    <col min="17" max="17" width="10.44140625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="8"/>
+    <col min="19" max="21" width="10.44140625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="8" customWidth="1"/>
+    <col min="23" max="25" width="8.6640625" style="8"/>
+    <col min="26" max="26" width="10.44140625" style="8" customWidth="1"/>
+    <col min="27" max="28" width="8.6640625" style="8"/>
+    <col min="29" max="31" width="10.44140625" style="8" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" style="8" customWidth="1"/>
+    <col min="33" max="40" width="10.44140625" style="2" customWidth="1"/>
+    <col min="41" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18.75">
+    <row r="1" spans="1:40" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="13.5" customHeight="1">
+    <row r="3" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="3" customFormat="1" ht="27">
+    <row r="4" spans="1:40" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
@@ -1291,7 +1339,7 @@
       </c>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1365,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
@@ -1427,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1489,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1551,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1613,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1675,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1737,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1799,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1861,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1923,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1985,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2047,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:40">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2109,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:40">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2171,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:40">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2233,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:40">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2295,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:40">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2357,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:40">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -2420,9 +2468,128 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AF4"/>
+  <autoFilter ref="A4:AF4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585EA7D6-624F-465A-9D5B-01C50035E56B}">
+  <dimension ref="B3:W4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B3" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="43"/>
+      <c r="C4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="44"/>
+      <c r="P4" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness\media\attachment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88843A5C-3BA2-4888-A9EE-D7EF238774AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AFBBD-9FCC-4467-945D-C147B06436DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="案件集計" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AF$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AG$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -472,6 +472,13 @@
   </si>
   <si>
     <t>経費合計</t>
+  </si>
+  <si>
+    <t>ＢＰ時間</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -840,11 +847,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,9 +1138,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN22"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1147,27 +1156,27 @@
     <col min="10" max="10" width="19.109375" style="2" customWidth="1"/>
     <col min="11" max="12" width="10.21875" style="2" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" style="11" customWidth="1"/>
-    <col min="15" max="16" width="8.6640625" style="8"/>
-    <col min="17" max="17" width="10.44140625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="8"/>
-    <col min="19" max="21" width="10.44140625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" style="8" customWidth="1"/>
-    <col min="23" max="25" width="8.6640625" style="8"/>
-    <col min="26" max="26" width="10.44140625" style="8" customWidth="1"/>
-    <col min="27" max="28" width="8.6640625" style="8"/>
-    <col min="29" max="31" width="10.44140625" style="8" customWidth="1"/>
-    <col min="32" max="32" width="9.6640625" style="8" customWidth="1"/>
-    <col min="33" max="40" width="10.44140625" style="2" customWidth="1"/>
-    <col min="41" max="16384" width="8.6640625" style="2"/>
+    <col min="14" max="15" width="8.5546875" style="11" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="8"/>
+    <col min="18" max="18" width="10.44140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="8"/>
+    <col min="20" max="22" width="10.44140625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="8" customWidth="1"/>
+    <col min="24" max="26" width="8.6640625" style="8"/>
+    <col min="27" max="27" width="10.44140625" style="8" customWidth="1"/>
+    <col min="28" max="29" width="8.6640625" style="8"/>
+    <col min="30" max="32" width="10.44140625" style="8" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" style="8" customWidth="1"/>
+    <col min="34" max="41" width="10.44140625" style="2" customWidth="1"/>
+    <col min="42" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1195,16 +1204,16 @@
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29" t="s">
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="32" t="s">
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="33"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
       <c r="AA3" s="33"/>
@@ -1212,23 +1221,24 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="33"/>
       <c r="AE3" s="33"/>
-      <c r="AF3" s="18" t="s">
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="39" t="s">
+      <c r="AH3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AH3" s="40"/>
       <c r="AI3" s="40"/>
       <c r="AJ3" s="40"/>
       <c r="AK3" s="40"/>
       <c r="AL3" s="40"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="18" t="s">
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
@@ -1265,81 +1275,84 @@
         <v>12</v>
       </c>
       <c r="O4" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="Q4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="R4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="S4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="T4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="34" t="s">
+      <c r="Y4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="34" t="s">
+      <c r="AC4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="42" t="s">
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" s="42" t="s">
+      <c r="AI4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" s="42" t="s">
+      <c r="AJ4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AJ4" s="42" t="s">
+      <c r="AK4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AK4" s="42" t="s">
+      <c r="AL4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AL4" s="42" t="s">
+      <c r="AM4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AM4" s="42" t="s">
+      <c r="AN4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1368,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -1382,38 +1395,39 @@
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
-      <c r="AC5" s="13">
-        <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(W5:AA5)*0.01),0)</f>
-        <v>0</v>
-      </c>
+      <c r="AC5" s="13"/>
       <c r="AD5" s="13">
-        <f>IF(H5="○",INT(SUM(W5:AA5)*0.14),0)</f>
+        <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(X5:AB5)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="13">
-        <f>SUM(W5:AD5)</f>
+        <f>IF(H5="○",INT(SUM(X5:AB5)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="13">
-        <f>U5-SUM(W5:AD5)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="38"/>
+        <f>SUM(X5:AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="13">
+        <f>V5-SUM(X5:AE5)</f>
+        <v>0</v>
+      </c>
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
       <c r="AJ5" s="38"/>
       <c r="AK5" s="38"/>
       <c r="AL5" s="38"/>
-      <c r="AM5" s="38">
-        <f>SUM(AG5:AL5)</f>
-        <v>0</v>
-      </c>
+      <c r="AM5" s="38"/>
       <c r="AN5" s="38">
-        <f>U5-AE5-AM5</f>
+        <f>SUM(AH5:AM5)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="38">
+        <f>V5-AF5-AN5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
@@ -1430,7 +1444,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -1444,38 +1458,39 @@
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
-      <c r="AC6" s="13">
-        <f t="shared" ref="AC6:AC22" si="1">IF(OR(I6="正社員",I6="契約社員"),INT(SUM(W6:AA6)*0.01),0)</f>
-        <v>0</v>
-      </c>
+      <c r="AC6" s="10"/>
       <c r="AD6" s="13">
-        <f t="shared" ref="AD6:AD22" si="2">IF(H6="○",INT(SUM(W6:AA6)*0.14),0)</f>
+        <f t="shared" ref="AD6:AD22" si="1">IF(OR(I6="正社員",I6="契約社員"),INT(SUM(X6:AB6)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="13">
-        <f t="shared" ref="AE6:AE22" si="3">SUM(W6:AD6)</f>
+        <f t="shared" ref="AE6:AE22" si="2">IF(H6="○",INT(SUM(X6:AB6)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="13">
-        <f t="shared" ref="AF6:AF22" si="4">U6-SUM(W6:AD6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="38"/>
+        <f t="shared" ref="AF6:AF22" si="3">SUM(X6:AE6)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="13">
+        <f t="shared" ref="AG6:AG22" si="4">V6-SUM(X6:AE6)</f>
+        <v>0</v>
+      </c>
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
       <c r="AJ6" s="38"/>
       <c r="AK6" s="38"/>
       <c r="AL6" s="38"/>
-      <c r="AM6" s="38">
-        <f t="shared" ref="AM6:AM22" si="5">SUM(AG6:AL6)</f>
-        <v>0</v>
-      </c>
+      <c r="AM6" s="38"/>
       <c r="AN6" s="38">
-        <f t="shared" ref="AN6:AN22" si="6">U6-AE6-AM6</f>
+        <f t="shared" ref="AN6:AN22" si="5">SUM(AH6:AM6)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="38">
+        <f t="shared" ref="AO6:AO22" si="6">V6-AF6-AN6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1492,7 +1507,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="10"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -1506,38 +1521,39 @@
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
-      <c r="AC7" s="13">
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AE7" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AF7" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AG7" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="38"/>
       <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="38"/>
       <c r="AL7" s="38"/>
-      <c r="AM7" s="38">
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="38">
+      <c r="AO7" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1554,7 +1570,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -1568,38 +1584,39 @@
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
-      <c r="AC8" s="13">
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AE8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AF8" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AG8" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="38"/>
       <c r="AH8" s="38"/>
       <c r="AI8" s="38"/>
       <c r="AJ8" s="38"/>
       <c r="AK8" s="38"/>
       <c r="AL8" s="38"/>
-      <c r="AM8" s="38">
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="38">
+      <c r="AO8" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1616,7 +1633,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="10"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -1630,38 +1647,39 @@
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
-      <c r="AC9" s="13">
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AE9" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AF9" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AG9" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="38"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
       <c r="AJ9" s="38"/>
       <c r="AK9" s="38"/>
       <c r="AL9" s="38"/>
-      <c r="AM9" s="38">
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="38">
+      <c r="AO9" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1678,7 +1696,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -1692,38 +1710,39 @@
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
-      <c r="AC10" s="13">
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AE10" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AF10" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AG10" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="38"/>
       <c r="AH10" s="38"/>
       <c r="AI10" s="38"/>
       <c r="AJ10" s="38"/>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
-      <c r="AM10" s="38">
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN10" s="38">
+      <c r="AO10" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1740,7 +1759,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -1754,38 +1773,39 @@
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
-      <c r="AC11" s="13">
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AE11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="AF11" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AG11" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="38"/>
       <c r="AH11" s="38"/>
       <c r="AI11" s="38"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
-      <c r="AM11" s="38">
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN11" s="38">
+      <c r="AO11" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1802,7 +1822,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="10"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -1816,38 +1836,39 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
-      <c r="AC12" s="13">
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AE12" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AF12" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AG12" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="38"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
-      <c r="AM12" s="38">
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="38">
+      <c r="AO12" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1864,7 +1885,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -1878,38 +1899,39 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
-      <c r="AC13" s="13">
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AE13" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AF13" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AG13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="38"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
       <c r="AK13" s="38"/>
       <c r="AL13" s="38"/>
-      <c r="AM13" s="38">
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="38">
+      <c r="AO13" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1926,7 +1948,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -1940,38 +1962,39 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
-      <c r="AC14" s="13">
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AE14" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="13">
+      <c r="AF14" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="13">
+      <c r="AG14" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AJ14" s="38"/>
       <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
-      <c r="AM14" s="38">
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="38">
+      <c r="AO14" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1988,7 +2011,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="10"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -2002,38 +2025,39 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
-      <c r="AC15" s="13">
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AE15" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="13">
+      <c r="AF15" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="13">
+      <c r="AG15" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
-      <c r="AM15" s="38">
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="38">
+      <c r="AO15" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2050,7 +2074,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="10"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2064,38 +2088,39 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
-      <c r="AC16" s="13">
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AE16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="13">
+      <c r="AF16" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="13">
+      <c r="AG16" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
-      <c r="AM16" s="38">
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="38">
+      <c r="AO16" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2112,7 +2137,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -2126,38 +2151,39 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
-      <c r="AC17" s="13">
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="13">
+      <c r="AE17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="13">
+      <c r="AF17" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="13">
+      <c r="AG17" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="38"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
-      <c r="AM17" s="38">
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="38">
+      <c r="AO17" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2174,7 +2200,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -2188,38 +2214,39 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
-      <c r="AC18" s="13">
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AE18" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AF18" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="13">
+      <c r="AG18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="38"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AJ18" s="38"/>
       <c r="AK18" s="38"/>
       <c r="AL18" s="38"/>
-      <c r="AM18" s="38">
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="38">
+      <c r="AO18" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2236,7 +2263,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -2250,38 +2277,39 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
-      <c r="AC19" s="13">
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AE19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AF19" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="13">
+      <c r="AG19" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="38"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
       <c r="AK19" s="38"/>
       <c r="AL19" s="38"/>
-      <c r="AM19" s="38">
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="38">
+      <c r="AO19" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2298,7 +2326,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="10"/>
+      <c r="O20" s="12"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -2312,38 +2340,39 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
-      <c r="AC20" s="13">
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="13">
+      <c r="AE20" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="13">
+      <c r="AF20" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="13">
+      <c r="AG20" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="38"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
       <c r="AK20" s="38"/>
       <c r="AL20" s="38"/>
-      <c r="AM20" s="38">
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="38">
+      <c r="AO20" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2360,7 +2389,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="10"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -2374,38 +2403,39 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
-      <c r="AC21" s="13">
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AE21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AF21" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AG21" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
       <c r="AK21" s="38"/>
       <c r="AL21" s="38"/>
-      <c r="AM21" s="38">
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="38">
+      <c r="AO21" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -2422,7 +2452,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="10"/>
+      <c r="O22" s="12"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2436,39 +2466,40 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
-      <c r="AC22" s="13">
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="13">
+      <c r="AE22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="AF22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="AG22" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="38"/>
       <c r="AH22" s="38"/>
       <c r="AI22" s="38"/>
       <c r="AJ22" s="38"/>
       <c r="AK22" s="38"/>
       <c r="AL22" s="38"/>
-      <c r="AM22" s="38">
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="38">
+      <c r="AO22" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AF4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:AG4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2488,7 +2519,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="29" t="s">
@@ -2524,7 +2555,7 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="15" t="s">
         <v>57</v>
       </c>
@@ -2561,7 +2592,7 @@
       <c r="N4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="44"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="42" t="s">
         <v>67</v>
       </c>
@@ -2583,7 +2614,7 @@
       <c r="V4" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="44"/>
+      <c r="W4" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness\media\attachment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AFBBD-9FCC-4467-945D-C147B06436DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A90B4-B0E8-4C82-8580-90B9B3EA7EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="案件集計" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AG$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AH$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -477,6 +477,16 @@
     <t>ＢＰ時間</t>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有休日数</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -485,10 +495,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -717,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +863,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,11 +1161,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1158,25 +1179,26 @@
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
     <col min="14" max="15" width="8.5546875" style="11" customWidth="1"/>
     <col min="16" max="17" width="8.6640625" style="8"/>
-    <col min="18" max="18" width="10.44140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="8"/>
-    <col min="20" max="22" width="10.44140625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="8" customWidth="1"/>
-    <col min="24" max="26" width="8.6640625" style="8"/>
-    <col min="27" max="27" width="10.44140625" style="8" customWidth="1"/>
-    <col min="28" max="29" width="8.6640625" style="8"/>
-    <col min="30" max="32" width="10.44140625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" style="8" customWidth="1"/>
-    <col min="34" max="41" width="10.44140625" style="2" customWidth="1"/>
-    <col min="42" max="16384" width="8.6640625" style="2"/>
+    <col min="18" max="18" width="8.6640625" style="45"/>
+    <col min="19" max="19" width="10.44140625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="8"/>
+    <col min="21" max="23" width="10.44140625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" style="8" customWidth="1"/>
+    <col min="25" max="27" width="8.6640625" style="8"/>
+    <col min="28" max="28" width="10.44140625" style="8" customWidth="1"/>
+    <col min="29" max="30" width="8.6640625" style="8"/>
+    <col min="31" max="33" width="10.44140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="8" customWidth="1"/>
+    <col min="35" max="42" width="10.44140625" style="2" customWidth="1"/>
+    <col min="43" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1203,18 +1225,18 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="R3" s="46"/>
       <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="29" t="s">
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="32" t="s">
+      <c r="W3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
       <c r="AA3" s="33"/>
       <c r="AB3" s="33"/>
@@ -1222,23 +1244,24 @@
       <c r="AD3" s="33"/>
       <c r="AE3" s="33"/>
       <c r="AF3" s="33"/>
-      <c r="AG3" s="18" t="s">
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="39" t="s">
+      <c r="AI3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AI3" s="40"/>
       <c r="AJ3" s="40"/>
       <c r="AK3" s="40"/>
       <c r="AL3" s="40"/>
       <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="18" t="s">
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
@@ -1283,76 +1306,79 @@
       <c r="Q4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="T4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="U4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Z4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AD4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="42" t="s">
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="42" t="s">
+      <c r="AJ4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AJ4" s="42" t="s">
+      <c r="AK4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="42" t="s">
+      <c r="AL4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AL4" s="42" t="s">
+      <c r="AM4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AM4" s="42" t="s">
+      <c r="AN4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AN4" s="42" t="s">
+      <c r="AO4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1384,7 +1410,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="R5" s="48"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
@@ -1396,38 +1422,39 @@
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
-      <c r="AD5" s="13">
-        <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(X5:AB5)*0.01),0)</f>
-        <v>0</v>
-      </c>
+      <c r="AD5" s="13"/>
       <c r="AE5" s="13">
-        <f>IF(H5="○",INT(SUM(X5:AB5)*0.14),0)</f>
+        <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(Y5:AC5)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="13">
-        <f>SUM(X5:AE5)</f>
+        <f>IF(H5="○",INT(SUM(Y5:AC5)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="13">
-        <f>V5-SUM(X5:AE5)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="38"/>
+        <f>SUM(Y5:AF5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="13">
+        <f>W5-SUM(Y5:AF5)</f>
+        <v>0</v>
+      </c>
       <c r="AI5" s="38"/>
       <c r="AJ5" s="38"/>
       <c r="AK5" s="38"/>
       <c r="AL5" s="38"/>
       <c r="AM5" s="38"/>
-      <c r="AN5" s="38">
-        <f>SUM(AH5:AM5)</f>
-        <v>0</v>
-      </c>
+      <c r="AN5" s="38"/>
       <c r="AO5" s="38">
-        <f>V5-AF5-AN5</f>
+        <f>SUM(AI5:AN5)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="38">
+        <f>W5-AG5-AO5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
@@ -1447,7 +1474,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -1459,38 +1486,39 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
-      <c r="AD6" s="13">
-        <f t="shared" ref="AD6:AD22" si="1">IF(OR(I6="正社員",I6="契約社員"),INT(SUM(X6:AB6)*0.01),0)</f>
-        <v>0</v>
-      </c>
+      <c r="AD6" s="10"/>
       <c r="AE6" s="13">
-        <f t="shared" ref="AE6:AE22" si="2">IF(H6="○",INT(SUM(X6:AB6)*0.14),0)</f>
+        <f t="shared" ref="AE6:AE22" si="1">IF(OR(I6="正社員",I6="契約社員"),INT(SUM(Y6:AC6)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="13">
-        <f t="shared" ref="AF6:AF22" si="3">SUM(X6:AE6)</f>
+        <f t="shared" ref="AF6:AF22" si="2">IF(H6="○",INT(SUM(Y6:AC6)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AG6" s="13">
-        <f t="shared" ref="AG6:AG22" si="4">V6-SUM(X6:AE6)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="38"/>
+        <f t="shared" ref="AG6:AG22" si="3">SUM(Y6:AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="13">
+        <f t="shared" ref="AH6:AH22" si="4">W6-SUM(Y6:AF6)</f>
+        <v>0</v>
+      </c>
       <c r="AI6" s="38"/>
       <c r="AJ6" s="38"/>
       <c r="AK6" s="38"/>
       <c r="AL6" s="38"/>
       <c r="AM6" s="38"/>
-      <c r="AN6" s="38">
-        <f t="shared" ref="AN6:AN22" si="5">SUM(AH6:AM6)</f>
-        <v>0</v>
-      </c>
+      <c r="AN6" s="38"/>
       <c r="AO6" s="38">
-        <f t="shared" ref="AO6:AO22" si="6">V6-AF6-AN6</f>
+        <f t="shared" ref="AO6:AO22" si="5">SUM(AI6:AN6)</f>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="38">
+        <f t="shared" ref="AP6:AP22" si="6">W6-AG6-AO6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1510,7 +1538,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -1522,38 +1550,39 @@
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
-      <c r="AD7" s="13">
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AF7" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AG7" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="13">
+      <c r="AH7" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="38"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
-      <c r="AN7" s="38">
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="38">
+      <c r="AP7" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1573,7 +1602,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="R8" s="48"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -1585,38 +1614,39 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="13">
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AF8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AG8" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="13">
+      <c r="AH8" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="38"/>
       <c r="AI8" s="38"/>
       <c r="AJ8" s="38"/>
       <c r="AK8" s="38"/>
       <c r="AL8" s="38"/>
       <c r="AM8" s="38"/>
-      <c r="AN8" s="38">
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="38">
+      <c r="AP8" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1636,7 +1666,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
@@ -1648,38 +1678,39 @@
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="13">
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AF9" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AG9" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="13">
+      <c r="AH9" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
       <c r="AJ9" s="38"/>
       <c r="AK9" s="38"/>
       <c r="AL9" s="38"/>
       <c r="AM9" s="38"/>
-      <c r="AN9" s="38">
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="38">
+      <c r="AP9" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1699,7 +1730,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="R10" s="48"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -1711,38 +1742,39 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
-      <c r="AD10" s="13">
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AF10" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AG10" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="13">
+      <c r="AH10" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="38"/>
       <c r="AI10" s="38"/>
       <c r="AJ10" s="38"/>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
       <c r="AM10" s="38"/>
-      <c r="AN10" s="38">
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="38">
+      <c r="AP10" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1762,7 +1794,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -1774,38 +1806,39 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
-      <c r="AD11" s="13">
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="AF11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AG11" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="13">
+      <c r="AH11" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="38"/>
       <c r="AI11" s="38"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
       <c r="AM11" s="38"/>
-      <c r="AN11" s="38">
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="38">
+      <c r="AP11" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1825,7 +1858,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="R12" s="48"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
@@ -1837,38 +1870,39 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
-      <c r="AD12" s="13">
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AF12" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AG12" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="13">
+      <c r="AH12" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
-      <c r="AN12" s="38">
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="38">
+      <c r="AP12" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1888,7 +1922,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="R13" s="48"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
@@ -1900,38 +1934,39 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
-      <c r="AD13" s="13">
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AF13" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AG13" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="AH13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
       <c r="AK13" s="38"/>
       <c r="AL13" s="38"/>
       <c r="AM13" s="38"/>
-      <c r="AN13" s="38">
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="38">
+      <c r="AP13" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1951,7 +1986,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="R14" s="48"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
@@ -1963,38 +1998,39 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
-      <c r="AD14" s="13">
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="13">
+      <c r="AF14" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="13">
+      <c r="AG14" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="13">
+      <c r="AH14" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AJ14" s="38"/>
       <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
-      <c r="AN14" s="38">
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="38">
+      <c r="AP14" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2014,7 +2050,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="R15" s="48"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
@@ -2026,38 +2062,39 @@
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
-      <c r="AD15" s="13">
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="13">
+      <c r="AF15" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="13">
+      <c r="AG15" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="13">
+      <c r="AH15" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
-      <c r="AN15" s="38">
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="38">
+      <c r="AP15" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2077,7 +2114,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="R16" s="48"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
@@ -2089,38 +2126,39 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
-      <c r="AD16" s="13">
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="13">
+      <c r="AF16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="13">
+      <c r="AG16" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="13">
+      <c r="AH16" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
-      <c r="AN16" s="38">
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="38">
+      <c r="AP16" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2140,7 +2178,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="R17" s="48"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
@@ -2152,38 +2190,39 @@
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
-      <c r="AD17" s="13">
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="13">
+      <c r="AF17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="13">
+      <c r="AG17" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="13">
+      <c r="AH17" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
-      <c r="AN17" s="38">
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="38">
+      <c r="AP17" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2203,7 +2242,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
+      <c r="R18" s="48"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -2215,38 +2254,39 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
-      <c r="AD18" s="13">
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AF18" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="13">
+      <c r="AG18" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="13">
+      <c r="AH18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AJ18" s="38"/>
       <c r="AK18" s="38"/>
       <c r="AL18" s="38"/>
       <c r="AM18" s="38"/>
-      <c r="AN18" s="38">
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="38">
+      <c r="AP18" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2266,7 +2306,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
+      <c r="R19" s="48"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
@@ -2278,38 +2318,39 @@
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
-      <c r="AD19" s="13">
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AF19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="13">
+      <c r="AG19" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="13">
+      <c r="AH19" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
       <c r="AK19" s="38"/>
       <c r="AL19" s="38"/>
       <c r="AM19" s="38"/>
-      <c r="AN19" s="38">
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="38">
+      <c r="AP19" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2329,7 +2370,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
+      <c r="R20" s="48"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
@@ -2341,38 +2382,39 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
-      <c r="AD20" s="13">
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="13">
+      <c r="AF20" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="13">
+      <c r="AG20" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
+      <c r="AH20" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
       <c r="AK20" s="38"/>
       <c r="AL20" s="38"/>
       <c r="AM20" s="38"/>
-      <c r="AN20" s="38">
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="38">
+      <c r="AP20" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2392,7 +2434,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="R21" s="48"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
@@ -2404,38 +2446,39 @@
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
-      <c r="AD21" s="13">
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AF21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AG21" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="13">
+      <c r="AH21" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
       <c r="AK21" s="38"/>
       <c r="AL21" s="38"/>
       <c r="AM21" s="38"/>
-      <c r="AN21" s="38">
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="38">
+      <c r="AP21" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -2455,7 +2498,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="R22" s="48"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -2467,39 +2510,40 @@
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
-      <c r="AD22" s="13">
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="AF22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="AG22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="13">
+      <c r="AH22" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH22" s="38"/>
       <c r="AI22" s="38"/>
       <c r="AJ22" s="38"/>
       <c r="AK22" s="38"/>
       <c r="AL22" s="38"/>
       <c r="AM22" s="38"/>
-      <c r="AN22" s="38">
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="38">
+      <c r="AP22" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AG4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:AH4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness\media\attachment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A90B4-B0E8-4C82-8580-90B9B3EA7EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1176213C-8B78-4092-862C-F0E3D208F5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="案件集計" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AH$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AI$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -487,6 +487,20 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出向コスト</t>
+    <rPh sb="0" eb="2">
+      <t>シュッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出向コスト</t>
+    <rPh sb="0" eb="2">
+      <t>シュッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -728,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,20 +875,23 @@
     <xf numFmtId="176" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP22"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1179,26 +1196,26 @@
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
     <col min="14" max="15" width="8.5546875" style="11" customWidth="1"/>
     <col min="16" max="17" width="8.6640625" style="8"/>
-    <col min="18" max="18" width="8.6640625" style="45"/>
+    <col min="18" max="18" width="8.6640625" style="44"/>
     <col min="19" max="19" width="10.44140625" style="8" customWidth="1"/>
     <col min="20" max="20" width="8.6640625" style="8"/>
     <col min="21" max="23" width="10.44140625" style="8" customWidth="1"/>
     <col min="24" max="24" width="9.6640625" style="8" customWidth="1"/>
-    <col min="25" max="27" width="8.6640625" style="8"/>
-    <col min="28" max="28" width="10.44140625" style="8" customWidth="1"/>
-    <col min="29" max="30" width="8.6640625" style="8"/>
-    <col min="31" max="33" width="10.44140625" style="8" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="8" customWidth="1"/>
-    <col min="35" max="42" width="10.44140625" style="2" customWidth="1"/>
-    <col min="43" max="16384" width="8.6640625" style="2"/>
+    <col min="25" max="28" width="8.6640625" style="8"/>
+    <col min="29" max="29" width="10.44140625" style="8" customWidth="1"/>
+    <col min="30" max="31" width="8.6640625" style="8"/>
+    <col min="32" max="34" width="10.44140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" style="8" customWidth="1"/>
+    <col min="36" max="43" width="10.44140625" style="2" customWidth="1"/>
+    <col min="44" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1225,7 +1242,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
-      <c r="R3" s="46"/>
+      <c r="R3" s="45"/>
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
       <c r="U3" s="28"/>
@@ -1245,23 +1262,24 @@
       <c r="AE3" s="33"/>
       <c r="AF3" s="33"/>
       <c r="AG3" s="33"/>
-      <c r="AH3" s="18" t="s">
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="39" t="s">
+      <c r="AJ3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AJ3" s="40"/>
       <c r="AK3" s="40"/>
       <c r="AL3" s="40"/>
       <c r="AM3" s="40"/>
       <c r="AN3" s="40"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="18" t="s">
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
@@ -1306,7 +1324,7 @@
       <c r="Q4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="46" t="s">
         <v>75</v>
       </c>
       <c r="S4" s="36" t="s">
@@ -1330,55 +1348,58 @@
       <c r="Y4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="34" t="s">
+      <c r="AE4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="42" t="s">
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AJ4" s="42" t="s">
+      <c r="AK4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="42" t="s">
+      <c r="AL4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AL4" s="42" t="s">
+      <c r="AM4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AM4" s="42" t="s">
+      <c r="AN4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AN4" s="42" t="s">
+      <c r="AO4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AO4" s="42" t="s">
+      <c r="AP4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1410,7 +1431,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="48"/>
+      <c r="R5" s="47"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
@@ -1423,38 +1444,39 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
-      <c r="AE5" s="13">
-        <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(Y5:AC5)*0.01),0)</f>
-        <v>0</v>
-      </c>
+      <c r="AE5" s="13"/>
       <c r="AF5" s="13">
-        <f>IF(H5="○",INT(SUM(Y5:AC5)*0.14),0)</f>
+        <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(Y5:AD5)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="13">
-        <f>SUM(Y5:AF5)</f>
+        <f>IF(H5="○",INT(SUM(Y5:AD5)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="13">
-        <f>W5-SUM(Y5:AF5)</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="38"/>
+        <f>SUM(Y5:AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="13">
+        <f>W5-SUM(Y5:AG5)</f>
+        <v>0</v>
+      </c>
       <c r="AJ5" s="38"/>
       <c r="AK5" s="38"/>
       <c r="AL5" s="38"/>
       <c r="AM5" s="38"/>
       <c r="AN5" s="38"/>
-      <c r="AO5" s="38">
-        <f>SUM(AI5:AN5)</f>
-        <v>0</v>
-      </c>
+      <c r="AO5" s="38"/>
       <c r="AP5" s="38">
-        <f>W5-AG5-AO5</f>
+        <f>SUM(AJ5:AO5)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="38">
+        <f>W5-AH5-AP5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
@@ -1474,7 +1496,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="48"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -1487,38 +1509,39 @@
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="13">
-        <f t="shared" ref="AE6:AE22" si="1">IF(OR(I6="正社員",I6="契約社員"),INT(SUM(Y6:AC6)*0.01),0)</f>
-        <v>0</v>
-      </c>
+      <c r="AE6" s="10"/>
       <c r="AF6" s="13">
-        <f t="shared" ref="AF6:AF22" si="2">IF(H6="○",INT(SUM(Y6:AC6)*0.14),0)</f>
+        <f>IF(OR(I6="正社員",I6="契約社員"),INT(SUM(Y6:AD6)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AG6" s="13">
-        <f t="shared" ref="AG6:AG22" si="3">SUM(Y6:AF6)</f>
+        <f>IF(H6="○",INT(SUM(Y6:AD6)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AH6" s="13">
-        <f t="shared" ref="AH6:AH22" si="4">W6-SUM(Y6:AF6)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="38"/>
+        <f t="shared" ref="AH6:AH22" si="1">SUM(Y6:AG6)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="13">
+        <f t="shared" ref="AI6:AI22" si="2">W6-SUM(Y6:AG6)</f>
+        <v>0</v>
+      </c>
       <c r="AJ6" s="38"/>
       <c r="AK6" s="38"/>
       <c r="AL6" s="38"/>
       <c r="AM6" s="38"/>
       <c r="AN6" s="38"/>
-      <c r="AO6" s="38">
-        <f t="shared" ref="AO6:AO22" si="5">SUM(AI6:AN6)</f>
-        <v>0</v>
-      </c>
+      <c r="AO6" s="38"/>
       <c r="AP6" s="38">
-        <f t="shared" ref="AP6:AP22" si="6">W6-AG6-AO6</f>
+        <f t="shared" ref="AP6:AP22" si="3">SUM(AJ6:AO6)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="38">
+        <f t="shared" ref="AQ6:AQ22" si="4">W6-AH6-AP6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1538,7 +1561,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="48"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -1551,38 +1574,39 @@
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="13">
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="13">
+        <f>IF(OR(I7="正社員",I7="契約社員"),INT(SUM(Y7:AD7)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="13">
+        <f>IF(H7="○",INT(SUM(Y7:AD7)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AI7" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="38"/>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="38"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
-      <c r="AO7" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO7" s="38"/>
       <c r="AP7" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1602,7 +1626,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="48"/>
+      <c r="R8" s="47"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -1615,38 +1639,39 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
-      <c r="AE8" s="13">
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="13">
+        <f>IF(OR(I8="正社員",I8="契約社員"),INT(SUM(Y8:AD8)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="13">
+        <f>IF(H8="○",INT(SUM(Y8:AD8)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AI8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="38"/>
       <c r="AJ8" s="38"/>
       <c r="AK8" s="38"/>
       <c r="AL8" s="38"/>
       <c r="AM8" s="38"/>
       <c r="AN8" s="38"/>
-      <c r="AO8" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO8" s="38"/>
       <c r="AP8" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1666,7 +1691,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="48"/>
+      <c r="R9" s="47"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
@@ -1679,38 +1704,39 @@
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="13">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="13">
+        <f>IF(OR(I9="正社員",I9="契約社員"),INT(SUM(Y9:AD9)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="13">
+        <f>IF(H9="○",INT(SUM(Y9:AD9)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AI9" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="38"/>
       <c r="AJ9" s="38"/>
       <c r="AK9" s="38"/>
       <c r="AL9" s="38"/>
       <c r="AM9" s="38"/>
       <c r="AN9" s="38"/>
-      <c r="AO9" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO9" s="38"/>
       <c r="AP9" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1730,7 +1756,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="48"/>
+      <c r="R10" s="47"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -1743,38 +1769,39 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="13">
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="13">
+        <f>IF(OR(I10="正社員",I10="契約社員"),INT(SUM(Y10:AD10)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
+        <f>IF(H10="○",INT(SUM(Y10:AD10)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AI10" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="38"/>
       <c r="AJ10" s="38"/>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
       <c r="AM10" s="38"/>
       <c r="AN10" s="38"/>
-      <c r="AO10" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO10" s="38"/>
       <c r="AP10" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1794,7 +1821,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="48"/>
+      <c r="R11" s="47"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -1807,38 +1834,39 @@
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
-      <c r="AE11" s="13">
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="13">
+        <f>IF(OR(I11="正社員",I11="契約社員"),INT(SUM(Y11:AD11)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="13">
+        <f>IF(H11="○",INT(SUM(Y11:AD11)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AI11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="38"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
       <c r="AM11" s="38"/>
       <c r="AN11" s="38"/>
-      <c r="AO11" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO11" s="38"/>
       <c r="AP11" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1858,7 +1886,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="48"/>
+      <c r="R12" s="47"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
@@ -1871,38 +1899,39 @@
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
-      <c r="AE12" s="13">
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="13">
+        <f>IF(OR(I12="正社員",I12="契約社員"),INT(SUM(Y12:AD12)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <f>IF(H12="○",INT(SUM(Y12:AD12)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AI12" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
       <c r="AN12" s="38"/>
-      <c r="AO12" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO12" s="38"/>
       <c r="AP12" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1922,7 +1951,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="48"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
@@ -1935,38 +1964,39 @@
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
-      <c r="AE13" s="13">
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="13">
+        <f>IF(OR(I13="正社員",I13="契約社員"),INT(SUM(Y13:AD13)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13">
+        <f>IF(H13="○",INT(SUM(Y13:AD13)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AI13" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
       <c r="AK13" s="38"/>
       <c r="AL13" s="38"/>
       <c r="AM13" s="38"/>
       <c r="AN13" s="38"/>
-      <c r="AO13" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO13" s="38"/>
       <c r="AP13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1986,7 +2016,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="48"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
@@ -1999,38 +2029,39 @@
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
-      <c r="AE14" s="13">
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="13">
+        <f>IF(OR(I14="正社員",I14="契約社員"),INT(SUM(Y14:AD14)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="13">
+        <f>IF(H14="○",INT(SUM(Y14:AD14)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="13">
+      <c r="AI14" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="38"/>
       <c r="AJ14" s="38"/>
       <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
       <c r="AN14" s="38"/>
-      <c r="AO14" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO14" s="38"/>
       <c r="AP14" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2050,7 +2081,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="48"/>
+      <c r="R15" s="47"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
@@ -2063,38 +2094,39 @@
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
-      <c r="AE15" s="13">
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="13">
+        <f>IF(OR(I15="正社員",I15="契約社員"),INT(SUM(Y15:AD15)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="13">
+        <f>IF(H15="○",INT(SUM(Y15:AD15)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="13">
+      <c r="AI15" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
       <c r="AN15" s="38"/>
-      <c r="AO15" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO15" s="38"/>
       <c r="AP15" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2114,7 +2146,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="48"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
@@ -2127,38 +2159,39 @@
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
-      <c r="AE16" s="13">
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="13">
+        <f>IF(OR(I16="正社員",I16="契約社員"),INT(SUM(Y16:AD16)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="13">
+        <f>IF(H16="○",INT(SUM(Y16:AD16)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="13">
+      <c r="AI16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
       <c r="AN16" s="38"/>
-      <c r="AO16" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO16" s="38"/>
       <c r="AP16" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2178,7 +2211,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="48"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
@@ -2191,38 +2224,39 @@
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
-      <c r="AE17" s="13">
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="13">
+        <f>IF(OR(I17="正社員",I17="契約社員"),INT(SUM(Y17:AD17)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="13">
+        <f>IF(H17="○",INT(SUM(Y17:AD17)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="13">
+      <c r="AI17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
       <c r="AN17" s="38"/>
-      <c r="AO17" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO17" s="38"/>
       <c r="AP17" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2242,7 +2276,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="48"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -2255,38 +2289,39 @@
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
-      <c r="AE18" s="13">
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="13">
+        <f>IF(OR(I18="正社員",I18="契約社員"),INT(SUM(Y18:AD18)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13">
+        <f>IF(H18="○",INT(SUM(Y18:AD18)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="13">
+      <c r="AI18" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="38"/>
       <c r="AJ18" s="38"/>
       <c r="AK18" s="38"/>
       <c r="AL18" s="38"/>
       <c r="AM18" s="38"/>
       <c r="AN18" s="38"/>
-      <c r="AO18" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO18" s="38"/>
       <c r="AP18" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2306,7 +2341,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="48"/>
+      <c r="R19" s="47"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
@@ -2319,38 +2354,39 @@
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
-      <c r="AE19" s="13">
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="13">
+        <f>IF(OR(I19="正社員",I19="契約社員"),INT(SUM(Y19:AD19)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="13">
+        <f>IF(H19="○",INT(SUM(Y19:AD19)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="13">
+      <c r="AI19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
       <c r="AK19" s="38"/>
       <c r="AL19" s="38"/>
       <c r="AM19" s="38"/>
       <c r="AN19" s="38"/>
-      <c r="AO19" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO19" s="38"/>
       <c r="AP19" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2370,7 +2406,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="48"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
@@ -2383,38 +2419,39 @@
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
-      <c r="AE20" s="13">
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="13">
+        <f>IF(OR(I20="正社員",I20="契約社員"),INT(SUM(Y20:AD20)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="13">
+        <f>IF(H20="○",INT(SUM(Y20:AD20)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="13">
+      <c r="AI20" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
       <c r="AK20" s="38"/>
       <c r="AL20" s="38"/>
       <c r="AM20" s="38"/>
       <c r="AN20" s="38"/>
-      <c r="AO20" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO20" s="38"/>
       <c r="AP20" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2434,7 +2471,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="48"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
@@ -2447,38 +2484,39 @@
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="13">
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="13">
+        <f>IF(OR(I21="正社員",I21="契約社員"),INT(SUM(Y21:AD21)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="13">
+        <f>IF(H21="○",INT(SUM(Y21:AD21)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AI21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
       <c r="AK21" s="38"/>
       <c r="AL21" s="38"/>
       <c r="AM21" s="38"/>
       <c r="AN21" s="38"/>
-      <c r="AO21" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO21" s="38"/>
       <c r="AP21" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -2498,7 +2536,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="48"/>
+      <c r="R22" s="47"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -2511,39 +2549,40 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
-      <c r="AE22" s="13">
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="13">
+        <f>IF(OR(I22="正社員",I22="契約社員"),INT(SUM(Y22:AD22)*0.01),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13">
+        <f>IF(H22="○",INT(SUM(Y22:AD22)*0.14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="AI22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="38"/>
       <c r="AJ22" s="38"/>
       <c r="AK22" s="38"/>
       <c r="AL22" s="38"/>
       <c r="AM22" s="38"/>
       <c r="AN22" s="38"/>
-      <c r="AO22" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AO22" s="38"/>
       <c r="AP22" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AH4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:AI4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2552,7 +2591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585EA7D6-624F-465A-9D5B-01C50035E56B}">
-  <dimension ref="B3:W4"/>
+  <dimension ref="B3:X4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2562,8 +2601,8 @@
     <col min="2" max="2" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="48" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="29" t="s">
@@ -2582,24 +2621,25 @@
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="Q3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="40"/>
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
       <c r="T3" s="40"/>
       <c r="U3" s="40"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="18" t="s">
+      <c r="V3" s="40"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="44"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="48"/>
       <c r="C4" s="15" t="s">
         <v>57</v>
       </c>
@@ -2612,53 +2652,56 @@
       <c r="F4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="43"/>
+      <c r="Q4" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="R4" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="S4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="T4" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="42" t="s">
+      <c r="U4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="42" t="s">
+      <c r="V4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="42" t="s">
+      <c r="W4" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2666,5 +2709,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>